--- a/gameData/shared/DailyQuests.xlsx
+++ b/gameData/shared/DailyQuests.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="1540" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="740" yWindow="700" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dailyQuests" sheetId="24" r:id="rId1"/>
@@ -35,85 +35,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>STR_icon</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_rewards</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>quest_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>quest_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>quest_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>quest_4</t>
-  </si>
-  <si>
-    <t>quest_5</t>
-  </si>
-  <si>
-    <t>quest_6</t>
-  </si>
-  <si>
-    <t>quest_7</t>
-  </si>
-  <si>
-    <t>quest_8</t>
-  </si>
-  <si>
-    <t>quest_9</t>
-  </si>
-  <si>
-    <t>quest_10</t>
-  </si>
-  <si>
-    <t>icon_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_3</t>
-  </si>
-  <si>
-    <t>icon_4</t>
-  </si>
-  <si>
-    <t>icon_5</t>
-  </si>
-  <si>
-    <t>icon_6</t>
-  </si>
-  <si>
-    <t>icon_7</t>
-  </si>
-  <si>
-    <t>icon_8</t>
-  </si>
-  <si>
-    <t>icon_9</t>
-  </si>
-  <si>
-    <t>icon_10</t>
-  </si>
-  <si>
     <t>INT_star</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -122,9 +53,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:10,resources:stone:10,resources:iron:10</t>
-  </si>
-  <si>
     <t>INT_style</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -150,6 +78,130 @@
   </si>
   <si>
     <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:1000,resources:stone:1000,resources:iron:1000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:1500,resources:food:1500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:3000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:stone:3000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:iron:3000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:food:3000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:coin:1500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:iron:1500,resources:food:1500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:1000,resources:stone:1000,resources:food:1000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:1000,resources:iron:1000,resources:food:1000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_desc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复起重机</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>酿造啤酒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>植木造林</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>石料开采</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼制钢铁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>收割麦子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制草图</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓舞士气</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开拓土地</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强戒备</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>repairingCrane</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brewingBeer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>forestPlanting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneQuarrying</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>steelRefining</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>harvestTheWheat</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sketchDrafting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>encourageSoldiers</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>landFormation</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>heightenMilitaryAlert</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +403,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,7 +415,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -857,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -868,9 +923,9 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -879,149 +934,173 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="4:4" ht="20" customHeight="1">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="4:4" ht="20" customHeight="1">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="4:4" ht="20" customHeight="1">
+      <c r="D19" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -1040,7 +1119,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1050,10 +1129,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -1114,7 +1193,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1124,22 +1203,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">

--- a/gameData/shared/DailyQuests.xlsx
+++ b/gameData/shared/DailyQuests.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="700" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="740" yWindow="700" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dailyQuests" sheetId="24" r:id="rId1"/>
@@ -920,7 +920,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="69" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
@@ -1118,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1141,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -1149,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -1157,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -1165,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -1173,7 +1175,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/DailyQuests.xlsx
+++ b/gameData/shared/DailyQuests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="700" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="2040" yWindow="320" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="dailyQuests" sheetId="24" r:id="rId1"/>
@@ -81,14 +81,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:1000,resources:stone:1000,resources:iron:1000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:wood:1500,resources:food:1500</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>resources:wood:3000</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -105,103 +97,111 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>resources:iron:1500,resources:food:1500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_desc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复起重机</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>酿造啤酒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>植木造林</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>石料开采</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼制钢铁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>收割麦子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制草图</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓舞士气</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开拓土地</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强戒备</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>repairingCrane</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brewingBeer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>forestPlanting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneQuarrying</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>steelRefining</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>harvestTheWheat</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sketchDrafting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>encourageSoldiers</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>landFormation</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>heightenMilitaryAlert</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>resources:coin:1500</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:iron:1500,resources:food:1500</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:wood:1000,resources:stone:1000,resources:food:1000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:wood:1000,resources:iron:1000,resources:food:1000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_desc</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复起重机</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>酿造啤酒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>植木造林</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>石料开采</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼制钢铁</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>收割麦子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>绘制草图</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼓舞士气</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>开拓土地</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加强戒备</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>repairingCrane</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>brewingBeer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>forestPlanting</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneQuarrying</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>steelRefining</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>harvestTheWheat</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sketchDrafting</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>encourageSoldiers</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>landFormation</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>heightenMilitaryAlert</t>
+    <t>resources:iron:1500,resources:coin:750</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:1500,resources:coin:750</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:stone:1500,resources:coin:750</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:food:1500,resources:coin:750</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +353,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -368,6 +368,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -421,7 +455,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="78">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -446,6 +480,23 @@
     <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -463,6 +514,23 @@
     <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -914,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -936,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3"/>
     </row>
@@ -945,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -959,13 +1027,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -973,13 +1041,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -987,13 +1055,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -1001,13 +1069,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
@@ -1015,13 +1083,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
@@ -1029,13 +1097,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
@@ -1043,13 +1111,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
@@ -1057,13 +1125,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
@@ -1071,13 +1139,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
@@ -1087,6 +1155,7 @@
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
@@ -1120,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1192,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1228,13 +1297,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1248,16 +1317,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1268,19 +1337,59 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/DailyQuests.xlsx
+++ b/gameData/shared/DailyQuests.xlsx
@@ -81,26 +81,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:wood:3000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:stone:3000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:iron:3000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:food:3000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:iron:1500,resources:food:1500</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_desc</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -185,23 +165,43 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resources:coin:1500</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:iron:1500,resources:coin:750</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:wood:1500,resources:coin:750</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:stone:1500,resources:coin:750</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:food:1500,resources:coin:750</t>
+    <t>resources:coin:3000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:iron:3000,resources:food:3000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:3000,resources:coin:1500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:iron:3000,resources:coin:1500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:stone:3000,resources:coin:1500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:food:3000,resources:coin:1500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:food:2000,resources:coin:2000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:stone:2000,resources:coin:2000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:iron:2000,resources:coin:2000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:wood:2000,resources:coin:2000</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +353,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="78">
+  <cellStyleXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -368,6 +368,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -455,7 +489,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="78">
+  <cellStyles count="112">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -497,6 +531,23 @@
     <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -531,6 +582,23 @@
     <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -983,7 +1051,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1004,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3"/>
     </row>
@@ -1013,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -1027,13 +1095,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -1041,13 +1109,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -1055,13 +1123,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -1069,13 +1137,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
@@ -1083,13 +1151,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
@@ -1097,13 +1165,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
@@ -1111,13 +1179,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
@@ -1125,13 +1193,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
@@ -1139,13 +1207,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
@@ -1190,7 +1258,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1212,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -1220,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -1228,7 +1296,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -1236,7 +1304,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -1244,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1264,7 +1332,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1297,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
@@ -1317,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -1337,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1357,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1377,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
